--- a/DataTool/DataTable/DT_PlanetData.xlsx
+++ b/DataTool/DataTable/DT_PlanetData.xlsx
@@ -2810,7 +2810,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>DefinitionExplain</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2952,6 +2952,10 @@
   </si>
   <si>
     <t>골드 분당 생산량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3397,7 +3401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3409,7 +3413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3457,7 +3461,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6">
         <v>3</v>
